--- a/biology/Botanique/Fuchsia_procumbens/Fuchsia_procumbens.xlsx
+++ b/biology/Botanique/Fuchsia_procumbens/Fuchsia_procumbens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuchsia procumbens est une espèce de plantes dicotylédones de la famille des Onagraceae. Ce Fuchsia atypique est l'unique espèce de la section Procumbentes, c'en est par conséquent aussi l'espèce type. Elle a été décrite en 1839 par le botaniste britannique Allan Cunningham (1791-1839), à la suite des travaux de son frère et homologue Richard Cunningham (1793-1835). L'épithète spécifique procumbens vient de l'adjectif procombant qui signifie « rampant », en référence au port des tiges[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fuchsia procumbens est une espèce de plantes dicotylédones de la famille des Onagraceae. Ce Fuchsia atypique est l'unique espèce de la section Procumbentes, c'en est par conséquent aussi l'espèce type. Elle a été décrite en 1839 par le botaniste britannique Allan Cunningham (1791-1839), à la suite des travaux de son frère et homologue Richard Cunningham (1793-1835). L'épithète spécifique procumbens vient de l'adjectif procombant qui signifie « rampant », en référence au port des tiges.
 </t>
         </is>
       </c>
@@ -511,17 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Espèce rampante dont les tiges s'allongent jusqu'à 5 à 6 m tout en s'enracinant au sol. Les fleurs dépourvue de corolle sont hermaphrodites. Les feuilles vertes sont en forme de cœur[4]. La plante donne des petits fruits rouge violacé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce rampante dont les tiges s'allongent jusqu'à 5 à 6 m tout en s'enracinant au sol. Les fleurs dépourvue de corolle sont hermaphrodites. Les feuilles vertes sont en forme de cœur. La plante donne des petits fruits rouge violacé.
 			Planche botanique (à gauche) de 1888
 			Vue d'ensemble de la plante
 			Détail de la fleur
 			Plante en fruits
-Variétés
-L'espèce admet deux variétés[4] :
-Fuchsia procumbens var. Kirkii, avec des fleurs mâles
-Fuchsia procumbens var. Argentis, avec des feuilles argentées</t>
+</t>
         </is>
       </c>
     </row>
@@ -546,12 +557,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce admet deux variétés :
+Fuchsia procumbens var. Kirkii, avec des fleurs mâles
+Fuchsia procumbens var. Argentis, avec des feuilles argentées</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fuchsia_procumbens</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuchsia_procumbens</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Nouvelle-Zélande[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Nouvelle-Zélande.
 </t>
         </is>
       </c>
